--- a/application/src/test/resources/PI_Content_Test_25.xlsx
+++ b/application/src/test/resources/PI_Content_Test_25.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="45" windowWidth="26115" windowHeight="13620"/>
+    <workbookView xWindow="1890" yWindow="690" windowWidth="26115" windowHeight="13620"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamtliste" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4280" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4283" uniqueCount="442">
   <si>
     <t>Index</t>
   </si>
@@ -1424,12 +1424,21 @@
   <si>
     <t>2-Furanaldehyde</t>
   </si>
+  <si>
+    <t>Henry constant (bond) [Pa-m³/mol]</t>
+  </si>
+  <si>
+    <t>Henry constant (group) [Pa-m³/mol]</t>
+  </si>
+  <si>
+    <t>Henry constant (exper database) [Pa-m³/mol]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1457,6 +1466,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1478,12 +1495,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1785,15 +1803,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DO145"/>
+  <dimension ref="A1:DR145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="CP1" workbookViewId="0">
+      <selection activeCell="DP1" sqref="DP1:DR1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2133,8 +2151,17 @@
       <c r="DI1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="DP1" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="DQ1" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="DR1" s="3" t="s">
+        <v>441</v>
+      </c>
     </row>
-    <row r="2" spans="1:119" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:122" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2493,7 +2520,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:119" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:122" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2543,7 +2570,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:119" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:122" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2593,7 +2620,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:119" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:122" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2643,7 +2670,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:119" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:122" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2669,7 +2696,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:119" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:122" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2695,7 +2722,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:119" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:122" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2721,7 +2748,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:119" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:122" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2747,7 +2774,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:119" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:122" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2773,7 +2800,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:119" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:122" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2799,7 +2826,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:119" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:122" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -3158,7 +3185,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:119" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:122" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -3208,7 +3235,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:119" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:122" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -3258,7 +3285,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:119" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:122" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -3308,7 +3335,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:119" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:122" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
